--- a/FinalTest/data/TestData.xlsx
+++ b/FinalTest/data/TestData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="CreateNewProject" sheetId="1" r:id="rId1"/>
     <sheet name="EditProject" sheetId="4" r:id="rId2"/>
     <sheet name="B" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>Project Name</t>
   </si>
@@ -96,14 +96,17 @@
     <t>CN01</t>
   </si>
   <si>
-    <t>EP01</t>
+    <t>PM06</t>
+  </si>
+  <si>
+    <t>PM09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -320,7 +322,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -518,9 +519,9 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -553,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
@@ -585,16 +586,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="G3" s="10"/>
+    <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="10"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -625,9 +620,9 @@
     <col min="12" max="12" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -663,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
@@ -696,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -723,7 +718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -756,18 +751,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="G5" s="10"/>
       <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="G7" s="10"/>
     </row>
   </sheetData>
@@ -777,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -799,7 +794,7 @@
     <col min="11" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -834,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -860,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -892,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -924,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="G5" s="10"/>
@@ -932,7 +927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="G6" s="10"/>
     </row>
   </sheetData>

--- a/FinalTest/data/TestData.xlsx
+++ b/FinalTest/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
   <si>
     <t>Project Name</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>PM09</t>
+  </si>
+  <si>
+    <t>PM07</t>
+  </si>
+  <si>
+    <t>PM08</t>
+  </si>
+  <si>
+    <t>Demo Project 2018</t>
+  </si>
+  <si>
+    <t>Demo Project 2100</t>
   </si>
 </sst>
 </file>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,7 +568,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -589,6 +601,144 @@
     <row r="3" spans="1:12">
       <c r="L3" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
